--- a/220CT_Data_Information_Retrieval/Coursework1/Task1/Orders.xlsx
+++ b/220CT_Data_Information_Retrieval/Coursework1/Task1/Orders.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\University-Work\220CT_Data_Information_Retrieval\Coursework1\Task1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\Rob\Documents\University-Work\220CT_Data_Information_Retrieval\Coursework1\Task1\"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Orders"/>
+    <sheet r:id="rId5" name="Orders1" sheetId="2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Orders">'Orders1'!$A$1:$D$5</definedName>
+  </definedNames>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\£#,##0.00;\-\£#,##0.00"/>
   </numFmts>
@@ -196,6 +196,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,4 +628,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Order ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Supplier ID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Total Price</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>CON-1234</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>032</t>
+        </is>
+      </c>
+      <c r="C2" s="5">
+        <v>42110</v>
+      </c>
+      <c r="D2" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>CON-2237</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="C3" s="5">
+        <v>41987</v>
+      </c>
+      <c r="D3" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>CON-2356</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="C4" s="5">
+        <v>42047</v>
+      </c>
+      <c r="D4" s="6">
+        <v>280</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>CON-3664</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="C5" s="5">
+        <v>42020</v>
+      </c>
+      <c r="D5" s="6">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>